--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3629.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3629.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.948186937227301</v>
+        <v>1.48619270324707</v>
       </c>
       <c r="B1">
-        <v>2.558101214677179</v>
+        <v>1.958019614219666</v>
       </c>
       <c r="C1">
-        <v>2.650538182005832</v>
+        <v>3.34549880027771</v>
       </c>
       <c r="D1">
-        <v>2.614189396053395</v>
+        <v>1.368920683860779</v>
       </c>
       <c r="E1">
-        <v>0.7429936211715271</v>
+        <v>0.809965193271637</v>
       </c>
     </row>
   </sheetData>
